--- a/results/pvalue_SIDER_all_Chem_AUPR+AUROC.xlsx
+++ b/results/pvalue_SIDER_all_Chem_AUPR+AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.051</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14.843</t>
+          <t>2.756</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14.517</t>
+          <t>-1.204</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.487</t>
+          <t>1.696</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14.127</t>
+          <t>-16.076</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.659</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.476</t>
+          <t>65.507</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
